--- a/f303C_sens/Map Registers.xlsx
+++ b/f303C_sens/Map Registers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E075997-BAF6-428F-8CFC-C6E36319456D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9553E025-ED23-4975-8A11-49E0DDCC3FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21336" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Десятичная</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>W/R</t>
+  </si>
+  <si>
+    <t>callibration</t>
+  </si>
+  <si>
+    <t>запись фоновых значений в системе</t>
+  </si>
+  <si>
+    <t>TimeOut</t>
+  </si>
+  <si>
+    <t>0-255</t>
+  </si>
+  <si>
+    <t>Время задержки устаноки сигнала в милисекундах</t>
   </si>
 </sst>
 </file>
@@ -897,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,11 +1053,21 @@
       <c r="B10" s="25">
         <v>6</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="17">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
@@ -1051,11 +1076,19 @@
       <c r="B11" s="22">
         <v>7</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
@@ -1108,7 +1141,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>29</v>

--- a/f303C_sens/Map Registers.xlsx
+++ b/f303C_sens/Map Registers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9553E025-ED23-4975-8A11-49E0DDCC3FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64AEA13-3720-4CC4-A418-48D71CE24D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21336" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21336" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Десятичная</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Время задержки устаноки сигнала в милисекундах</t>
+  </si>
+  <si>
+    <t>0-4092</t>
   </si>
 </sst>
 </file>
@@ -912,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,11 +991,17 @@
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
